--- a/CRAPveg.xlsx
+++ b/CRAPveg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\School Files\DAL\ENGM4620-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D453A12D-A106-49E7-8079-9DD88F3B33C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373E1C2B-7DC3-4C96-B0BA-5BB63586C118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="0" windowWidth="19836" windowHeight="12240" xr2:uid="{74FC477A-3386-4684-9D0F-9D928D555311}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>Veg</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>Tomato</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Scotian</t>
   </si>
 </sst>
 </file>
@@ -518,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8566D2-B006-4B16-AC6F-2BB5324F10B2}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,7 +540,7 @@
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -547,8 +556,11 @@
       <c r="E1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -564,8 +576,11 @@
       <c r="E2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -581,8 +596,11 @@
       <c r="E3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -598,8 +616,11 @@
       <c r="E4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -615,8 +636,11 @@
       <c r="E5">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -632,8 +656,11 @@
       <c r="E6">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -649,8 +676,11 @@
       <c r="E7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -666,8 +696,11 @@
       <c r="E8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -683,8 +716,11 @@
       <c r="E9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -700,8 +736,11 @@
       <c r="E10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -717,8 +756,11 @@
       <c r="E11">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -734,8 +776,11 @@
       <c r="E12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -748,8 +793,11 @@
       <c r="E13">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -762,8 +810,11 @@
       <c r="E14">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -776,8 +827,11 @@
       <c r="E15">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -790,8 +844,11 @@
       <c r="E16">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -804,19 +861,28 @@
       <c r="E17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
       <c r="E18">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -829,8 +895,11 @@
       <c r="E19">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -843,8 +912,11 @@
       <c r="E20">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -857,8 +929,11 @@
       <c r="E21">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -871,8 +946,11 @@
       <c r="E22">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -885,13 +963,25 @@
       <c r="E23">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
       <c r="B24" t="s">
         <v>36</v>
       </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
       <c r="E24">
         <v>92</v>
+      </c>
+      <c r="F24">
+        <v>2.99</v>
       </c>
     </row>
   </sheetData>

--- a/CRAPveg.xlsx
+++ b/CRAPveg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Type.1</t>
+          <t>Type.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Butter?</t>
+          <t>Yellow Butterwax</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
         <v>2.99</v>
@@ -1059,6 +1059,78 @@
       </c>
       <c r="F24" t="n">
         <v>2.99</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bean</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Orca</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>24</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Watermelon</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Sugar Baby</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Peas</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sweet Magnolia</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/CRAPveg.xlsx
+++ b/CRAPveg.xlsx
@@ -1103,10 +1103,10 @@
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">

--- a/CRAPveg.xlsx
+++ b/CRAPveg.xlsx
@@ -506,16 +506,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Light Red Kidney</t>
+          <t>Empress</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Bush</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>2.99</v>
@@ -534,16 +534,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tiger Eye</t>
+          <t>Golden Butterwax</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Bush</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
         <v>2.99</v>
@@ -562,16 +562,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Golden Butterwax</t>
+          <t>Kentucky Wonder Wax</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bush</t>
+          <t>Pole</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
         <v>2.99</v>
@@ -590,16 +590,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Provider</t>
+          <t>Light Red Kidney</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bush</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>2.99</v>
@@ -618,19 +618,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Purple Peacock</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Pole</t>
-        </is>
-      </c>
+          <t>Orca</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>2.99</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="8">
@@ -646,16 +642,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tonello</t>
+          <t>Provider</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Pole</t>
+          <t>Bush</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
         <v>2.99</v>
@@ -674,16 +670,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Empress</t>
+          <t>Purple Peacock</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bush</t>
+          <t>Pole</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>2.99</v>
@@ -730,12 +726,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kentucky Wonder Wax</t>
+          <t>Tiger Eye</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pole</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -758,16 +754,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yellow Butterwax</t>
+          <t>Tonello</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bush</t>
+          <t>Pole</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>2.99</v>
@@ -781,17 +777,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Beets</t>
+          <t>Bean</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cylindra</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>Yellow Butterwax</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Bush</t>
+        </is>
+      </c>
       <c r="E13" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
         <v>2.99</v>
@@ -810,12 +810,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Detroit DarkRed</t>
+          <t>Cylindra</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F14" t="n">
         <v>2.99</v>
@@ -834,12 +834,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Early Wonder</t>
+          <t>Detroit DarkRed</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F15" t="n">
         <v>2.99</v>
@@ -853,17 +853,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Broccoli</t>
+          <t>Beets</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Calabrese</t>
+          <t>Early Wonder</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F16" t="n">
         <v>2.99</v>
@@ -877,17 +877,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Brussel Sprouts</t>
+          <t>Broccoli</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Long Island</t>
+          <t>Calabrese</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F17" t="n">
         <v>2.99</v>
@@ -906,12 +906,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>commercial</t>
+          <t>Long Island</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F18" t="n">
         <v>2.99</v>
@@ -925,17 +925,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cabbage</t>
+          <t>Brussel Sprouts</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Danish Ballhead</t>
+          <t>commercial</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F19" t="n">
         <v>2.99</v>
@@ -954,12 +954,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mammouth Red Rock</t>
+          <t>Danish Ballhead</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F20" t="n">
         <v>2.99</v>
@@ -973,17 +973,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Carrots</t>
+          <t>Cabbage</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Black Nebula</t>
+          <t>Mammouth Red Rock</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F21" t="n">
         <v>2.99</v>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Danvers</t>
+          <t>Black Nebula</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
         <v>2.99</v>
@@ -1021,17 +1021,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cauliflower</t>
+          <t>Carrots</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Early Snowball</t>
+          <t>Danvers</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="F23" t="n">
         <v>2.99</v>
@@ -1045,17 +1045,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tomato</t>
+          <t>Cauliflower</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Scotian</t>
+          <t>Early Snowball</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F24" t="n">
         <v>2.99</v>
@@ -1069,20 +1069,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bean</t>
+          <t>Peas</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Orca</t>
+          <t>Sweet Magnolia</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25" t="n">
-        <v>3.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1093,20 +1093,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Watermelon</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sugar Baby</t>
+          <t>Scotian</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="27">
@@ -1117,20 +1117,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Watermelon</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sweet Magnolia</t>
+          <t>Sugar Baby</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
